--- a/data/trans_dic/P18_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>29,65%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>13,32%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>7,92%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>91,68%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,77; 36,15</t>
+          <t>20,83; 36,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,48</t>
+          <t>0,0; 6,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 21,96</t>
+          <t>10,97; 25,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 12,3</t>
+          <t>2,61; 12,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,41; 95,92</t>
+          <t>3,91; 16,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,92; 39,82</t>
+          <t>4,32; 16,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 9,28</t>
+          <t>1,34; 10,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 17,01</t>
+          <t>24,93; 39,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 20,63</t>
+          <t>1,43; 8,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>86,09; 96,51</t>
+          <t>6,84; 15,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,66; 34,42</t>
+          <t>4,99; 17,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,55</t>
+          <t>1,19; 7,71</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,61; 17,28</t>
+          <t>3,56; 13,58</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 14,48</t>
+          <t>2,92; 10,97</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>87,37; 94,97</t>
+          <t>24,75; 35,13</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 5,37</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 18,5</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 12,23</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 10,39</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 13,06</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 9,29</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>26,59%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>26,45%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>8,67%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16,04%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,82%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>93,92%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>26,45%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>8,42%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>15,33%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>7,76%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>93,04%</t>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>15,59%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,3; 35,46</t>
+          <t>18,9; 36,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 15,63</t>
+          <t>4,32; 17,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,86; 25,91</t>
+          <t>9,77; 25,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 11,68</t>
+          <t>3,24; 9,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,04; 96,27</t>
+          <t>1,62; 8,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 33,14</t>
+          <t>3,84; 14,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 13,68</t>
+          <t>3,77; 13,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 21,37</t>
+          <t>21,02; 33,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,81</t>
+          <t>4,88; 13,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>88,49; 96,6</t>
+          <t>11,14; 21,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,82; 32,22</t>
+          <t>5,34; 13,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 12,5</t>
+          <t>3,09; 10,25</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 20,55</t>
+          <t>3,23; 10,72</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 10,59</t>
+          <t>3,18; 10,25</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>89,32; 96,02</t>
+          <t>21,78; 31,63</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,59; 13,4</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 22,21</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 10,42</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 7,96</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 10,82</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 10,36</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>23,7%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>8,51%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>10,27%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>92,16%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,1; 33,49</t>
+          <t>21,55; 33,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 18,56</t>
+          <t>5,52; 20,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 16,19</t>
+          <t>6,07; 15,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 15,51</t>
+          <t>6,1; 16,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,45; 96,03</t>
+          <t>6,1; 19,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 25,43</t>
+          <t>3,89; 10,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,36</t>
+          <t>2,03; 9,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 15,28</t>
+          <t>16,42; 25,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 14,8</t>
+          <t>5,32; 11,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,36; 94,09</t>
+          <t>8,81; 15,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,84; 27,84</t>
+          <t>8,4; 15,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 12,76</t>
+          <t>5,37; 12,25</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,73; 14,66</t>
+          <t>5,59; 12,62</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 13,79</t>
+          <t>5,27; 12,78</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>89,23; 94,33</t>
+          <t>20,32; 27,83</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 13,75</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 13,97</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8,01; 13,87</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 13,04</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 10,83</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 9,93</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>28,85%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>11,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>17,18%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>28,6%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>9,29%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>14,32%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>10,16%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>87,07%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>10,47%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,98; 34,67</t>
+          <t>22,64; 34,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,89</t>
+          <t>5,08; 11,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,86; 17,85</t>
+          <t>7,73; 17,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,71</t>
+          <t>5,9; 12,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,88; 93,29</t>
+          <t>4,33; 10,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,02; 33,86</t>
+          <t>6,64; 15,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 14,73</t>
+          <t>7,68; 16,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,58; 21,75</t>
+          <t>24,16; 33,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 15,0</t>
+          <t>7,87; 15,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>79,07; 88,38</t>
+          <t>13,53; 21,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,15; 32,68</t>
+          <t>8,78; 15,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 11,82</t>
+          <t>8,57; 16,02</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>11,56; 17,68</t>
+          <t>10,69; 20,67</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,62</t>
+          <t>6,0; 13,68</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>83,65; 90,08</t>
+          <t>24,86; 32,76</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 12,03</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>11,56; 17,78</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,32; 12,82</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 12,43</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 16,69</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 13,93</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>33,69%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>12,27%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>23,91%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20,32%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>32,03%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>9,86%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>18,02%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>15,26%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>84,86%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>15,14%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,46; 36,98</t>
+          <t>23,48; 36,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 11,37</t>
+          <t>4,3; 11,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 16,32</t>
+          <t>8,79; 16,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 14,56</t>
+          <t>7,05; 14,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>85,29; 94,28</t>
+          <t>5,94; 13,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,72; 39,91</t>
+          <t>5,62; 14,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,52; 17,42</t>
+          <t>10,69; 21,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,19; 29,44</t>
+          <t>27,65; 39,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 25,87</t>
+          <t>7,85; 17,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>73,88; 84,82</t>
+          <t>18,8; 29,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,91; 36,67</t>
+          <t>15,43; 25,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,45; 13,09</t>
+          <t>4,75; 13,77</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,02; 21,93</t>
+          <t>15,26; 26,11</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 18,53</t>
+          <t>8,58; 18,13</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>81,49; 88,1</t>
+          <t>27,86; 36,46</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 12,83</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>14,9; 21,74</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>12,49; 18,88</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 12,07</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>12,01; 19,24</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>10,71; 17,85</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>47,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>77,85%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>21,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11,65%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>22,15%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>16,21%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>44,29%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>18,72%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>20,84%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>16,84%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>81,54%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>17,14%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>18,46%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,91; 47,06</t>
+          <t>33,2; 47,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,29; 25,41</t>
+          <t>9,77; 24,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,09; 22,99</t>
+          <t>10,01; 21,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,5; 17,77</t>
+          <t>7,46; 17,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>79,32; 91,89</t>
+          <t>2,51; 11,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,67; 53,68</t>
+          <t>8,36; 20,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,57; 27,12</t>
+          <t>6,57; 18,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,19; 31,44</t>
+          <t>41,58; 53,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,9; 27,1</t>
+          <t>17,77; 30,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>67,95; 84,79</t>
+          <t>19,65; 31,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>39,9; 49,36</t>
+          <t>15,91; 28,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,76; 23,54</t>
+          <t>7,26; 18,53</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>17,05; 25,31</t>
+          <t>15,17; 31,4</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>13,13; 21,18</t>
+          <t>11,05; 24,45</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>75,14; 85,94</t>
+          <t>39,95; 49,24</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>15,73; 25,32</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 25,05</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>13,34; 22,02</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 13,16</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>13,45; 24,53</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 19,27</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,97%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>31,63%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>11,29%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>17,51%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>85,87%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>30,7%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>15,25%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>11,34%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>88,25%</t>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>11,41%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,96; 32,53</t>
+          <t>27,02; 32,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,75; 10,66</t>
+          <t>6,67; 10,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,06</t>
+          <t>11,09; 15,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,37; 10,73</t>
+          <t>7,3; 10,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>88,46; 92,47</t>
+          <t>5,89; 9,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,22; 33,97</t>
+          <t>7,55; 11,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,32; 13,11</t>
+          <t>7,27; 11,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,56; 19,39</t>
+          <t>29,38; 34,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,08; 16,16</t>
+          <t>9,97; 13,72</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>83,33; 88,05</t>
+          <t>15,5; 19,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28,96; 32,61</t>
+          <t>11,93; 16,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,52; 11,42</t>
+          <t>7,06; 10,47</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>14,01; 16,87</t>
+          <t>11,53; 16,74</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,02; 12,65</t>
+          <t>8,28; 12,36</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>86,56; 89,72</t>
+          <t>28,84; 32,36</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 11,71</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>13,84; 17,07</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 12,83</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 9,63</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 13,35</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>8,39; 11,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>138794</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7454</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>87530</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32027</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40956</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3684</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>148799</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19342</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>54549</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>45159</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15711</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2252</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>287593</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>26797</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>142078</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>77186</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>56667</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>6553</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>4116</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>105627; 182758</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 31116</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>56614; 131521</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12951; 62552</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18239; 75039</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1784; 6711</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>576; 4497</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>115393; 182938</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6688; 39331</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34834; 81005</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25657; 90950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5657; 36787</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1331; 5079</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1126; 4229</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>240041; 340687</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>13006; 51927</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>104027; 189762</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>48710; 123535</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>31720; 98117</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>4022; 10287</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>2301; 7592</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>145029</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50526</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>85111</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36633</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>24084</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>136694</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43923</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>81740</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>46811</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>29443</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2772</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>281723</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>94449</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>166851</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>83443</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>53527</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>6753</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>6483</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>104111; 198725</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24739; 98773</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>54940; 146024</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19107; 58707</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9383; 50003</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1917; 7306</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1833; 6666</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>108089; 171248</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25199; 69980</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>56601; 106699</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27501; 69127</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15618; 51779</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1523; 5059</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1456; 4691</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>231957; 336914</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>60913; 146049</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>129525; 237764</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>59002; 115110</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>31830; 86324</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>4092; 10506</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>4150; 9777</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>180019</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>66653</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64316</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64135</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>68155</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2919</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>142764</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>55157</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>85384</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>80750</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>57443</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>322782</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>121810</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>149700</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>144886</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>125597</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>8942</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>7630</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>143859; 226942</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37183; 135154</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41223; 105653</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41468; 112978</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>40711; 130660</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2341; 6431</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1232; 5942</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>113974; 174128</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37794; 83132</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>62829; 112984</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>59636; 107780</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38299; 87385</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3012; 6802</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2890; 7008</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>276688; 378983</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>86444; 190249</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>116147; 194380</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>111299; 192809</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>88557; 180027</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>6544; 12360</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>5092; 11485</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>178458</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>48622</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>72726</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>55276</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>46950</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6129</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6503</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>201846</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>75758</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>115437</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>77790</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>79214</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8017</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>4986</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>380304</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>124381</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>188163</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>133066</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>126164</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>14146</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>11489</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>142612; 219454</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32626; 73055</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>49593; 109198</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>37158; 77066</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>28360; 71999</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3848; 9138</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4357; 9402</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>169031; 234404</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>53476; 103259</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>90156; 144056</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57628; 101788</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56476; 105562</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5493; 10625</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3182; 7254</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>330580; 435567</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>94878; 158888</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>151195; 232593</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>107059; 164917</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>96754; 163383</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>10908; 18259</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>8513; 15292</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>152412</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35805</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>61525</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>52112</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>46205</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6709</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>165809</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>61287</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>118307</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>102947</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>44394</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>9867</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6071</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>318222</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>97092</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>179832</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>155059</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>90600</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>14086</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>12779</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>117723; 183618</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20910; 55855</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>43767; 81703</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>34589; 72100</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29033; 67804</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2502; 6476</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4767; 9736</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>136119; 196454</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>39069; 87732</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>93271; 145427</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>79127; 129660</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24280; 70416</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>7407; 12676</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3947; 8343</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>276835; 362306</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>69335; 126211</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>148166; 216199</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>125264; 189412</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>64334; 120775</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>11173; 17897</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>9703; 16178</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>210693</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>78221</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>75012</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>61530</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>31669</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6222</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5042</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>328991</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>162526</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>161571</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>141378</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>83440</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>14115</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>10185</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>539683</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>240747</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>236583</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>202908</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>115109</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>20337</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>15227</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>174270; 249037</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>51592; 127646</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>50140; 109816</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>38491; 88995</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>14111; 65177</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3884; 9595</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2909; 8001</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>288421; 369568</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>124964; 214041</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>125146; 201264</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>106301; 191557</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>52019; 132758</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>9665; 20010</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>6942; 15365</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>486832; 600047</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>193643; 311819</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>196551; 285084</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>157888; 260669</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>78360; 168315</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>14816; 27029</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>10965; 20647</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>868.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1005405</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>287282</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>446220</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>301713</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>258020</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>28122</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>26748</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1124902</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>417993</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>616987</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>494835</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>309645</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>42696</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>30977</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2130307</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>705275</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1063207</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>796548</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>567665</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>70818</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>57725</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>913823; 1099671</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>226782; 367410</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>376864; 534217</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>248454; 369242</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>201440; 331460</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>22688; 35025</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>21677; 33501</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1045125; 1212769</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>356480; 490600</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>547286; 682845</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>426489; 572395</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>252999; 375095</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>34847; 50576</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>24927; 37215</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2000820; 2245073</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>616116; 816702</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>959032; 1182279</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>712132; 895546</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>486935; 674612</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>62408; 80448</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>50284; 66950</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>